--- a/Roofline i7.xlsx
+++ b/Roofline i7.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafael\OneDrive\Escola\Universidade do Minho\MEI\Computação Paralela e Distribuída\1 - Arquiteturas Avançadas\WorkAssgn1516\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -169,14 +169,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$A$2:$A$12</c15:sqref>
+                    <c15:sqref>Sheet1!$A$2:$A$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$A$2:$A$8,Sheet1!$A$10:$A$12)</c:f>
+              <c:f>(Sheet1!$A$2:$A$8,Sheet1!$A$10:$A$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0.25</c:v>
                 </c:pt>
@@ -206,6 +206,15 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -215,14 +224,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Sheet1!$B$2:$B$12</c15:sqref>
+                    <c15:sqref>Sheet1!$B$2:$B$15</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>(Sheet1!$B$2:$B$8,Sheet1!$B$10:$B$12)</c:f>
+              <c:f>(Sheet1!$B$2:$B$8,Sheet1!$B$10:$B$15)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>3.25</c:v>
                 </c:pt>
@@ -251,6 +260,15 @@
                   <c:v>256</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>256</c:v>
                 </c:pt>
               </c:numCache>
@@ -259,6 +277,7 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -267,16 +286,77 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1392853104"/>
-        <c:axId val="1390069792"/>
+        <c:axId val="-2137887392"/>
+        <c:axId val="-1957706784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1392853104"/>
+        <c:axId val="-2137887392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Operational</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Intensity (FLOPS/Byte)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -314,7 +394,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1390069792"/>
+        <c:crossAx val="-1957706784"/>
         <c:crossesAt val="1"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -322,11 +402,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1390069792"/>
+        <c:axId val="-1957706784"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
-          <c:max val="1024"/>
+          <c:max val="512"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -344,6 +424,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>GFLOPS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -375,7 +511,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1392853104"/>
+        <c:crossAx val="-2137887392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="2"/>
@@ -985,16 +1121,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>35259</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>32524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:colOff>278781</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>121960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1279,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,6 +1543,30 @@
         <v>256</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>256</v>
+      </c>
+      <c r="B13">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>512</v>
+      </c>
+      <c r="B14">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1024</v>
+      </c>
+      <c r="B15">
+        <v>256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
